--- a/artfynd/A 13987-2022.xlsx
+++ b/artfynd/A 13987-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89595773</v>
+        <v>103282810</v>
       </c>
       <c r="B2" t="n">
-        <v>76909</v>
+        <v>78072</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6437</v>
+        <v>229821</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Råttenhållan, Hjd</t>
+          <t>Lillån, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432039.8893262132</v>
+        <v>431718.1430436089</v>
       </c>
       <c r="R2" t="n">
-        <v>6839141.943619461</v>
+        <v>6839416.587044697</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,26 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Öster</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89595748</v>
+        <v>103282805</v>
       </c>
       <c r="B3" t="n">
-        <v>90841</v>
+        <v>77541</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Råttenhållan, Hjd</t>
+          <t>Lillån, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>432054.1601938157</v>
+        <v>431731.287519474</v>
       </c>
       <c r="R3" t="n">
-        <v>6839142.136896571</v>
+        <v>6839479.950734794</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,35 +888,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Grov, gammal mossöveväxt tallåga</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Öster</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103282794</v>
+        <v>103282803</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>78072</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>432016.9683605726</v>
+        <v>431688.7184720396</v>
       </c>
       <c r="R4" t="n">
-        <v>6839233.565669493</v>
+        <v>6839371.588283245</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1029,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103282792</v>
+        <v>103282812</v>
       </c>
       <c r="B5" t="n">
         <v>77605</v>
@@ -1069,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>431795.6229505471</v>
+        <v>431710.8905027295</v>
       </c>
       <c r="R5" t="n">
-        <v>6839126.828563252</v>
+        <v>6839410.558286428</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1141,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103282817</v>
+        <v>89595773</v>
       </c>
       <c r="B6" t="n">
-        <v>77605</v>
+        <v>76909</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,37 +1144,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>967</v>
+        <v>6437</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lillån, Hjd</t>
+          <t>Råttenhållan, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>431951.9551120809</v>
+        <v>432039.8893262132</v>
       </c>
       <c r="R6" t="n">
-        <v>6839240.547665785</v>
+        <v>6839141.943619461</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1211,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1221,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1241,22 +1228,26 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103282804</v>
+        <v>89595748</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>90841</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1269,37 +1260,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lillån, Hjd</t>
+          <t>Råttenhållan, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>431741.5324676937</v>
+        <v>432054.1601938157</v>
       </c>
       <c r="R7" t="n">
-        <v>6839133.123530419</v>
+        <v>6839142.136896571</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1323,7 +1314,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1333,7 +1324,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1349,26 +1340,35 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Grov, gammal mossöveväxt tallåga</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103282810</v>
+        <v>103282794</v>
       </c>
       <c r="B8" t="n">
-        <v>78072</v>
+        <v>77259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,21 +1381,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431718.1430436089</v>
+        <v>432016.9683605726</v>
       </c>
       <c r="R8" t="n">
-        <v>6839416.587044697</v>
+        <v>6839233.565669493</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103282805</v>
+        <v>103282792</v>
       </c>
       <c r="B9" t="n">
-        <v>77541</v>
+        <v>77605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,21 +1493,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>967</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431731.287519474</v>
+        <v>431795.6229505471</v>
       </c>
       <c r="R9" t="n">
-        <v>6839479.950734794</v>
+        <v>6839126.828563252</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103282803</v>
+        <v>103282817</v>
       </c>
       <c r="B10" t="n">
-        <v>78072</v>
+        <v>77605</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>967</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431688.7184720396</v>
+        <v>431951.9551120809</v>
       </c>
       <c r="R10" t="n">
-        <v>6839371.588283245</v>
+        <v>6839240.547665785</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103282812</v>
+        <v>103282804</v>
       </c>
       <c r="B11" t="n">
-        <v>77605</v>
+        <v>78098</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1717,21 +1717,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>967</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431710.8905027295</v>
+        <v>431741.5324676937</v>
       </c>
       <c r="R11" t="n">
-        <v>6839410.558286428</v>
+        <v>6839133.123530419</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>

--- a/artfynd/A 13987-2022.xlsx
+++ b/artfynd/A 13987-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103282810</v>
+        <v>89595773</v>
       </c>
       <c r="B2" t="n">
-        <v>78072</v>
+        <v>76909</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229821</v>
+        <v>6437</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lillån, Hjd</t>
+          <t>Råttenhållan, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431718.1430436089</v>
+        <v>432039.8893262132</v>
       </c>
       <c r="R2" t="n">
-        <v>6839416.587044697</v>
+        <v>6839141.943619461</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103282805</v>
+        <v>89595748</v>
       </c>
       <c r="B3" t="n">
-        <v>77541</v>
+        <v>90841</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lillån, Hjd</t>
+          <t>Råttenhållan, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431731.287519474</v>
+        <v>432054.1601938157</v>
       </c>
       <c r="R3" t="n">
-        <v>6839479.950734794</v>
+        <v>6839142.136896571</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,26 +892,35 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Grov, gammal mossöveväxt tallåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103282803</v>
+        <v>103282794</v>
       </c>
       <c r="B4" t="n">
-        <v>78072</v>
+        <v>77259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +933,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431688.7184720396</v>
+        <v>432016.9683605726</v>
       </c>
       <c r="R4" t="n">
-        <v>6839371.588283245</v>
+        <v>6839233.565669493</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103282812</v>
+        <v>103282792</v>
       </c>
       <c r="B5" t="n">
         <v>77605</v>
@@ -1056,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>431710.8905027295</v>
+        <v>431795.6229505471</v>
       </c>
       <c r="R5" t="n">
-        <v>6839410.558286428</v>
+        <v>6839126.828563252</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89595773</v>
+        <v>103282817</v>
       </c>
       <c r="B6" t="n">
-        <v>76909</v>
+        <v>77605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,37 +1157,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6437</v>
+        <v>967</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Råttenhållan, Hjd</t>
+          <t>Lillån, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432039.8893262132</v>
+        <v>431951.9551120809</v>
       </c>
       <c r="R6" t="n">
-        <v>6839141.943619461</v>
+        <v>6839240.547665785</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1198,7 +1211,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1221,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1228,26 +1241,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Öster</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89595748</v>
+        <v>103282804</v>
       </c>
       <c r="B7" t="n">
-        <v>90841</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,37 +1269,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Råttenhållan, Hjd</t>
+          <t>Lillån, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432054.1601938157</v>
+        <v>431741.5324676937</v>
       </c>
       <c r="R7" t="n">
-        <v>6839142.136896571</v>
+        <v>6839133.123530419</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1314,7 +1323,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1324,7 +1333,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1340,35 +1349,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Grov, gammal mossöveväxt tallåga</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Andreas Öster</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103282794</v>
+        <v>103282810</v>
       </c>
       <c r="B8" t="n">
-        <v>77259</v>
+        <v>78072</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,21 +1381,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>432016.9683605726</v>
+        <v>431718.1430436089</v>
       </c>
       <c r="R8" t="n">
-        <v>6839233.565669493</v>
+        <v>6839416.587044697</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103282792</v>
+        <v>103282805</v>
       </c>
       <c r="B9" t="n">
-        <v>77605</v>
+        <v>77541</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,21 +1493,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>967</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431795.6229505471</v>
+        <v>431731.287519474</v>
       </c>
       <c r="R9" t="n">
-        <v>6839126.828563252</v>
+        <v>6839479.950734794</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103282817</v>
+        <v>103282803</v>
       </c>
       <c r="B10" t="n">
-        <v>77605</v>
+        <v>78072</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>967</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431951.9551120809</v>
+        <v>431688.7184720396</v>
       </c>
       <c r="R10" t="n">
-        <v>6839240.547665785</v>
+        <v>6839371.588283245</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103282804</v>
+        <v>103282812</v>
       </c>
       <c r="B11" t="n">
-        <v>78098</v>
+        <v>77605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1717,21 +1717,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>967</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431741.5324676937</v>
+        <v>431710.8905027295</v>
       </c>
       <c r="R11" t="n">
-        <v>6839133.123530419</v>
+        <v>6839410.558286428</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
